--- a/ArenalClient/Docs/Hl7Tables.xlsx
+++ b/ArenalClient/Docs/Hl7Tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalat\source\repos\Git\ArenalClient\ArenalClient\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291F349E-97E4-4989-B1D6-470766A4D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C3995-2831-4E93-9536-8AFFC5DB91EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{4E5B89D8-2C80-4B95-BD4B-5AC06DDA941D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{4E5B89D8-2C80-4B95-BD4B-5AC06DDA941D}"/>
   </bookViews>
   <sheets>
     <sheet name="0070" sheetId="2" r:id="rId1"/>
-    <sheet name="0371" sheetId="3" r:id="rId2"/>
-    <sheet name="0487" sheetId="1" r:id="rId3"/>
+    <sheet name="0376 Handling" sheetId="4" r:id="rId2"/>
+    <sheet name="0371 Aditives" sheetId="3" r:id="rId3"/>
+    <sheet name="0487" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="864">
   <si>
     <t>ABS</t>
   </si>
@@ -2528,6 +2529,108 @@
   </si>
   <si>
     <t>Black top tube</t>
+  </si>
+  <si>
+    <t>AMB</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>Body temperature</t>
+  </si>
+  <si>
+    <t>CAMB</t>
+  </si>
+  <si>
+    <t>Critical ambient temperature</t>
+  </si>
+  <si>
+    <t>CATM</t>
+  </si>
+  <si>
+    <t>Protect from air</t>
+  </si>
+  <si>
+    <t>CFRZ</t>
+  </si>
+  <si>
+    <t>Critical frozen temperature</t>
+  </si>
+  <si>
+    <t>CREF</t>
+  </si>
+  <si>
+    <t>Critical refrigerated temperature</t>
+  </si>
+  <si>
+    <t>DFRZ</t>
+  </si>
+  <si>
+    <t>Deep frozen</t>
+  </si>
+  <si>
+    <t>DRY</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>FRZ</t>
+  </si>
+  <si>
+    <t>Frozen temperature</t>
+  </si>
+  <si>
+    <t>MTLF</t>
+  </si>
+  <si>
+    <t>Metal Free</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>Liquid nitrogen</t>
+  </si>
+  <si>
+    <t>PRTL</t>
+  </si>
+  <si>
+    <t>Protect from light</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>Do not shake</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>No shock</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Refrigerated temperature</t>
+  </si>
+  <si>
+    <t>UFRZ</t>
+  </si>
+  <si>
+    <t>Ultra frozen</t>
+  </si>
+  <si>
+    <t>UPR</t>
+  </si>
+  <si>
+    <t>Upright</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A9B25E-10F2-4000-8D30-D816EFD2C43D}">
   <dimension ref="A1:B340"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5618,11 +5721,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97A860D-FB69-4BC5-BBD6-7491F9377762}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>848</v>
+      </c>
+      <c r="B10" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>852</v>
+      </c>
+      <c r="B12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>856</v>
+      </c>
+      <c r="B14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>858</v>
+      </c>
+      <c r="B15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>860</v>
+      </c>
+      <c r="B16" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>862</v>
+      </c>
+      <c r="B17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB5DCD5-7821-489A-A061-73630B0D495B}">
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6263,12 +6520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09349452-00DE-402E-8C58-DD1EC91E8A1F}">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8429,7 +8686,6 @@
         <v>532</v>
       </c>
     </row>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
